--- a/TestData/BappTestData.xlsx
+++ b/TestData/BappTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3980" windowWidth="38320" windowHeight="21140" activeTab="1"/>
+    <workbookView xWindow="-34600" yWindow="120" windowWidth="25520" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="264">
   <si>
     <t>注册模块数据集</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -790,59 +790,161 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>01085730099</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>invitecodeText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请码为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认个人邀请码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认机构邀请码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>N</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请同意相关协议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>01085730099</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>invitecodeText</t>
+    <t>32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capp邀请码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人邀请码改成Capp邀请码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人邀请码改成不存在的邀请码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人邀请码改成机构邀请码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构邀请码改成Capp邀请码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构邀请码改成不存在的邀请码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构邀请码改成个人邀请码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>个人改成其他个人邀请码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构改成其他机构邀请码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除邀请码注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请码不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>servicephoneText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -858,23 +960,53 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您填写的邀请码无效</t>
+  </si>
+  <si>
+    <t>您已参与其他活动，无法修改此邀请码</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>邀请码为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认个人邀请码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认机构邀请码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>31</t>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入正确格式手机号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入手机号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -882,81 +1014,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capp邀请码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人邀请码改成Capp邀请码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人邀请码改成不存在的邀请码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人邀请码改成机构邀请码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构邀请码改成Capp邀请码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构邀请码改成不存在的邀请码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构邀请码改成个人邀请码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>个人改成其他个人邀请码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构改成其他机构邀请码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清除邀请码注册</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请码不存在</t>
+    <t>请阅读并同意《经纪宝注册协议》</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -964,7 +1029,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,6 +1119,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1078,7 +1153,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1137,8 +1212,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1185,17 +1275,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="56">
+  <cellStyles count="71">
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -1251,6 +1347,21 @@
     <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1567,12 +1678,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1589,10 +1700,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1601,8 +1712,8 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="88.5" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
         <v>103</v>
       </c>
@@ -1611,8 +1722,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1623,8 +1734,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>68</v>
       </c>
@@ -1633,8 +1744,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1643,16 +1754,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1661,10 +1772,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1675,32 +1786,32 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1711,9 +1822,9 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="20" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="4">
@@ -1721,18 +1832,18 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="2">
         <v>1234567</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1743,8 +1854,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="5" t="s">
         <v>96</v>
       </c>
@@ -1753,8 +1864,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="5" t="s">
         <v>97</v>
       </c>
@@ -1763,8 +1874,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="5" t="s">
         <v>98</v>
       </c>
@@ -1773,8 +1884,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="5" t="s">
         <v>99</v>
       </c>
@@ -1783,8 +1894,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="5" t="s">
         <v>92</v>
       </c>
@@ -1793,8 +1904,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="5" t="s">
         <v>91</v>
       </c>
@@ -1803,8 +1914,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="5" t="s">
         <v>90</v>
       </c>
@@ -1813,8 +1924,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="5" t="s">
         <v>89</v>
       </c>
@@ -1823,8 +1934,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1835,8 +1946,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="5" t="s">
         <v>87</v>
       </c>
@@ -1845,8 +1956,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="5" t="s">
         <v>33</v>
       </c>
@@ -1855,8 +1966,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="5" t="s">
         <v>34</v>
       </c>
@@ -1865,8 +1976,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
@@ -1875,8 +1986,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="5" t="s">
         <v>86</v>
       </c>
@@ -1885,10 +1996,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -1899,8 +2010,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="5" t="s">
         <v>42</v>
       </c>
@@ -1909,8 +2020,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="5" t="s">
         <v>44</v>
       </c>
@@ -1919,8 +2030,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
@@ -1929,8 +2040,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="5" t="s">
         <v>47</v>
       </c>
@@ -1939,8 +2050,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="5" t="s">
         <v>49</v>
       </c>
@@ -1949,8 +2060,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="5" t="s">
         <v>75</v>
       </c>
@@ -1959,8 +2070,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="5" t="s">
         <v>76</v>
       </c>
@@ -1969,8 +2080,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="5" t="s">
         <v>77</v>
       </c>
@@ -1979,8 +2090,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -1989,8 +2100,8 @@
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="5" t="s">
         <v>78</v>
       </c>
@@ -1999,10 +2110,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -2011,72 +2122,72 @@
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17" t="s">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -2087,63 +2198,63 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
       <c r="C57" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
       <c r="C58" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="18" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2153,7 +2264,7 @@
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
-      <c r="A61" s="17"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
@@ -2161,7 +2272,7 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -2173,7 +2284,7 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
-      <c r="A63" s="17"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="3" t="s">
         <v>67</v>
       </c>
@@ -2188,17 +2299,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A17:A31"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="B41:B42"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="B3:B4"/>
@@ -2207,6 +2307,17 @@
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2232,14 +2343,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.5" style="13" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" style="13" customWidth="1"/>
@@ -2247,14 +2358,15 @@
     <col min="4" max="4" width="14.83203125" style="13" customWidth="1"/>
     <col min="5" max="6" width="18.33203125" style="13"/>
     <col min="7" max="8" width="28.5" style="13" customWidth="1"/>
-    <col min="9" max="12" width="18.33203125" style="13"/>
-    <col min="13" max="13" width="9.5" style="13" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="13" customWidth="1"/>
-    <col min="15" max="15" width="24.33203125" style="13" customWidth="1"/>
-    <col min="16" max="16384" width="18.33203125" style="13"/>
+    <col min="9" max="11" width="18.33203125" style="13"/>
+    <col min="13" max="13" width="18.33203125" style="13"/>
+    <col min="14" max="14" width="9.5" style="13" customWidth="1"/>
+    <col min="15" max="15" width="43" style="13" customWidth="1"/>
+    <col min="16" max="16" width="24.33203125" style="13" customWidth="1"/>
+    <col min="17" max="16384" width="18.33203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="13" t="s">
         <v>161</v>
       </c>
@@ -2277,7 +2389,7 @@
         <v>109</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>110</v>
@@ -2288,20 +2400,23 @@
       <c r="K1" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" s="13" t="s">
         <v>121</v>
       </c>
@@ -2321,10 +2436,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>219</v>
+        <v>115</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>115</v>
+        <v>251</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>115</v>
@@ -2332,14 +2447,17 @@
       <c r="K2" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="13">
+      <c r="P2" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="13" t="s">
         <v>149</v>
       </c>
@@ -2359,7 +2477,7 @@
         <v>195</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>157</v>
@@ -2370,20 +2488,23 @@
       <c r="K3" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M3" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="O3" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="13">
+    <row r="4" spans="1:16">
       <c r="A4" s="13" t="s">
         <v>150</v>
       </c>
@@ -2400,10 +2521,10 @@
         <v>157</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>157</v>
@@ -2414,25 +2535,28 @@
       <c r="K4" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="N4" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="O4" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="P4" s="10" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" s="13" t="s">
         <v>151</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>156</v>
@@ -2447,7 +2571,7 @@
         <v>157</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>157</v>
@@ -2458,11 +2582,20 @@
       <c r="K5" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M5" s="13" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="N5" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="13" t="s">
         <v>152</v>
       </c>
@@ -2482,7 +2615,7 @@
         <v>157</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>157</v>
@@ -2493,11 +2626,20 @@
       <c r="K6" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M6" s="13" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="N6" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="13" t="s">
         <v>153</v>
       </c>
@@ -2517,7 +2659,7 @@
         <v>157</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>157</v>
@@ -2528,11 +2670,20 @@
       <c r="K7" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="N7" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="13" t="s">
         <v>162</v>
       </c>
@@ -2549,7 +2700,7 @@
         <v>157</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>157</v>
@@ -2560,17 +2711,23 @@
       <c r="K8" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M8" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="M8" s="13" t="s">
-        <v>121</v>
+      <c r="N8" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="O8" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="P8" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="13" t="s">
         <v>163</v>
       </c>
@@ -2590,7 +2747,7 @@
         <v>157</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>157</v>
@@ -2601,11 +2758,17 @@
       <c r="K9" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M9" s="13" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="N9" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="13" t="s">
         <v>164</v>
       </c>
@@ -2628,7 +2791,7 @@
         <v>157</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>157</v>
@@ -2639,14 +2802,17 @@
       <c r="K10" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M10" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="N10" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11" s="13" t="s">
         <v>165</v>
       </c>
@@ -2666,7 +2832,7 @@
         <v>141</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>157</v>
@@ -2677,11 +2843,14 @@
       <c r="K11" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M11" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="13">
+    <row r="12" spans="1:16">
       <c r="A12" s="13" t="s">
         <v>166</v>
       </c>
@@ -2701,10 +2870,10 @@
         <v>141</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>157</v>
@@ -2712,20 +2881,23 @@
       <c r="K12" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M12" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="N12" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="O12" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="O12" s="14" t="s">
+      <c r="P12" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="13">
+    <row r="13" spans="1:16">
       <c r="A13" s="13" t="s">
         <v>167</v>
       </c>
@@ -2745,7 +2917,7 @@
         <v>157</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>157</v>
@@ -2756,14 +2928,17 @@
       <c r="K13" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M13" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="O13" s="10" t="s">
+      <c r="P13" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="13">
+    <row r="14" spans="1:16">
       <c r="A14" s="13" t="s">
         <v>168</v>
       </c>
@@ -2783,7 +2958,7 @@
         <v>141</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>157</v>
@@ -2794,14 +2969,17 @@
       <c r="K14" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="M14" s="13" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="14">
+      <c r="N14" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="13" t="s">
         <v>169</v>
       </c>
@@ -2821,7 +2999,7 @@
         <v>141</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>157</v>
@@ -2832,14 +3010,17 @@
       <c r="K15" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M15" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="13">
+      <c r="N15" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="13" t="s">
         <v>170</v>
       </c>
@@ -2859,7 +3040,7 @@
         <v>141</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>157</v>
@@ -2870,14 +3051,17 @@
       <c r="K16" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M16" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="M16" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="N16" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="13" t="s">
         <v>171</v>
       </c>
@@ -2897,10 +3081,10 @@
         <v>142</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>157</v>
@@ -2908,17 +3092,20 @@
       <c r="K17" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M17" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>204</v>
-      </c>
       <c r="N17" s="13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>257</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="13" t="s">
         <v>172</v>
       </c>
@@ -2938,25 +3125,28 @@
         <v>148</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I18" s="13" t="s">
         <v>157</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M18" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="O18" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="13" t="s">
         <v>173</v>
       </c>
@@ -2976,7 +3166,7 @@
         <v>143</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>157</v>
@@ -2987,14 +3177,17 @@
       <c r="K19" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M19" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="O19" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="13" t="s">
         <v>174</v>
       </c>
@@ -3014,7 +3207,7 @@
         <v>144</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>157</v>
@@ -3025,14 +3218,17 @@
       <c r="K20" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M20" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="O20" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="13" t="s">
         <v>175</v>
       </c>
@@ -3052,7 +3248,7 @@
         <v>145</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I21" s="13" t="s">
         <v>157</v>
@@ -3063,14 +3259,17 @@
       <c r="K21" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M21" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="O21" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="13" t="s">
         <v>176</v>
       </c>
@@ -3090,7 +3289,7 @@
         <v>146</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>157</v>
@@ -3101,14 +3300,17 @@
       <c r="K22" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M22" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="O22" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="13" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>177</v>
       </c>
@@ -3128,7 +3330,7 @@
         <v>147</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>157</v>
@@ -3139,11 +3341,14 @@
       <c r="K23" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M23" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" s="13" t="s">
         <v>178</v>
       </c>
@@ -3163,7 +3368,7 @@
         <v>121</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I24" s="13" t="s">
         <v>157</v>
@@ -3174,14 +3379,17 @@
       <c r="K24" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M24" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="M24" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="N24" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="13" t="s">
         <v>179</v>
       </c>
@@ -3201,7 +3409,7 @@
         <v>121</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>157</v>
@@ -3212,14 +3420,17 @@
       <c r="K25" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="M25" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="N25" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="13" t="s">
         <v>180</v>
       </c>
@@ -3239,7 +3450,7 @@
         <v>118</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>157</v>
@@ -3250,14 +3461,17 @@
       <c r="K26" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="M26" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="N26" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="13" t="s">
         <v>181</v>
       </c>
@@ -3277,7 +3491,7 @@
         <v>118</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>157</v>
@@ -3288,14 +3502,17 @@
       <c r="K27" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M27" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="M27" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="N27" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="13" t="s">
         <v>182</v>
       </c>
@@ -3315,7 +3532,7 @@
         <v>118</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>157</v>
@@ -3326,14 +3543,17 @@
       <c r="K28" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M28" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="M28" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="N28" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="13" t="s">
         <v>183</v>
       </c>
@@ -3353,7 +3573,7 @@
         <v>118</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>157</v>
@@ -3362,16 +3582,19 @@
         <v>157</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="L29" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="L29" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M29" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="M29" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="14">
+      <c r="N29" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="13" t="s">
         <v>184</v>
       </c>
@@ -3389,7 +3612,7 @@
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>157</v>
@@ -3398,19 +3621,22 @@
         <v>157</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="L30" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="N30" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="O30" s="15" t="s">
+      <c r="P30" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="14">
+    <row r="31" spans="1:16">
       <c r="A31" s="13" t="s">
         <v>185</v>
       </c>
@@ -3430,7 +3656,7 @@
         <v>155</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>157</v>
@@ -3439,18 +3665,21 @@
         <v>157</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>193</v>
+        <v>260</v>
+      </c>
+      <c r="L31" s="17" t="s">
+        <v>244</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>117</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C32" s="13">
         <v>15210262168</v>
@@ -3462,36 +3691,39 @@
         <v>114</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G32" s="13">
         <v>1</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="K32" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L32" s="13" t="s">
-        <v>227</v>
+      <c r="L32" s="17" t="s">
+        <v>244</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="O32" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>251</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C33" s="13">
         <v>15210262168</v>
@@ -3503,36 +3735,39 @@
         <v>114</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G33" s="13">
         <v>1</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="K33" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="L33" s="13" t="s">
-        <v>227</v>
+      <c r="L33" s="17" t="s">
+        <v>244</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>253</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C34" s="13">
         <v>15210262168</v>
@@ -3553,27 +3788,33 @@
         <v>117</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="K34" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="L34" s="13" t="s">
-        <v>117</v>
+      <c r="L34" s="17" t="s">
+        <v>244</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>119</v>
+        <v>252</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="O34" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>248</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="13" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C35" s="13">
         <v>15210262168</v>
@@ -3594,27 +3835,33 @@
         <v>117</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="K35" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="L35" s="13" t="s">
+      <c r="L35" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M35" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M35" s="13" t="s">
-        <v>119</v>
+      <c r="N35" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="O35" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>248</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C36" s="13">
         <v>15210262168</v>
@@ -3635,27 +3882,33 @@
         <v>117</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="K36" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="L36" s="13" t="s">
+      <c r="L36" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M36" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M36" s="13" t="s">
-        <v>119</v>
+      <c r="N36" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>249</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="13" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C37" s="13">
         <v>15210262168</v>
@@ -3676,27 +3929,33 @@
         <v>117</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="K37" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="L37" s="13" t="s">
+      <c r="L37" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M37" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M37" s="13" t="s">
-        <v>119</v>
+      <c r="N37" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>248</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="13" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C38" s="13">
         <v>15210262168</v>
@@ -3717,27 +3976,33 @@
         <v>117</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M38" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M38" s="13" t="s">
-        <v>119</v>
+      <c r="N38" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="O38" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>248</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="13" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C39" s="13">
         <v>15210262168</v>
@@ -3758,22 +4023,28 @@
         <v>117</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="K39" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="L39" s="13" t="s">
+      <c r="L39" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="M39" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M39" s="13" t="s">
-        <v>119</v>
+      <c r="N39" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="O39" s="13" t="s">
-        <v>236</v>
+        <v>249</v>
+      </c>
+      <c r="P39" s="13" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/BappTestData.xlsx
+++ b/TestData/BappTestData.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-34600" yWindow="120" windowWidth="25520" windowHeight="15600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
     <sheet name="register" sheetId="2" r:id="rId2"/>
+    <sheet name="login" sheetId="3" r:id="rId3"/>
+    <sheet name="logout" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="279">
   <si>
     <t>注册模块数据集</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1022,6 +1024,65 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginSucceed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号未注册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14500000001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qaz123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qaz123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号或密码错误，您还有4次重试机会。</t>
+  </si>
+  <si>
+    <t>手机号或密码错误，您还有4次重试机会。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号锁定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loginButton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户未注册或已失效。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>您的帐号已被锁定，如密码丢失，请通过忘记密码功能，修改密码次日0点后再尝试登录。如有疑问，请拨打400-654321-8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1153,11 +1214,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1281,17 +1370,17 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="99">
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -1362,6 +1451,34 @@
     <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1678,12 +1795,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1700,7 +1817,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -1712,7 +1829,7 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="88.5" customHeight="1">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
         <v>103</v>
@@ -1722,7 +1839,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
         <v>9</v>
       </c>
@@ -1734,7 +1851,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>68</v>
@@ -1744,7 +1861,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1754,7 +1871,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="2" t="s">
         <v>14</v>
@@ -1762,7 +1879,7 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>15</v>
@@ -1772,10 +1889,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1786,32 +1903,32 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1822,8 +1939,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="20" t="s">
         <v>95</v>
       </c>
@@ -1832,18 +1949,18 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="2">
         <v>1234567</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1854,8 +1971,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="5" t="s">
         <v>96</v>
       </c>
@@ -1864,8 +1981,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="5" t="s">
         <v>97</v>
       </c>
@@ -1874,8 +1991,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="5" t="s">
         <v>98</v>
       </c>
@@ -1884,8 +2001,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="5" t="s">
         <v>99</v>
       </c>
@@ -1894,8 +2011,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="5" t="s">
         <v>92</v>
       </c>
@@ -1904,8 +2021,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="5" t="s">
         <v>91</v>
       </c>
@@ -1914,8 +2031,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="5" t="s">
         <v>90</v>
       </c>
@@ -1924,8 +2041,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="5" t="s">
         <v>89</v>
       </c>
@@ -1934,8 +2051,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -1946,8 +2063,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="5" t="s">
         <v>87</v>
       </c>
@@ -1956,8 +2073,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="5" t="s">
         <v>33</v>
       </c>
@@ -1966,8 +2083,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="5" t="s">
         <v>34</v>
       </c>
@@ -1976,8 +2093,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
@@ -1986,8 +2103,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="5" t="s">
         <v>86</v>
       </c>
@@ -1996,10 +2113,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -2010,8 +2127,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="5" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2137,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="5" t="s">
         <v>44</v>
       </c>
@@ -2030,8 +2147,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
@@ -2040,8 +2157,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="5" t="s">
         <v>47</v>
       </c>
@@ -2050,8 +2167,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="5" t="s">
         <v>49</v>
       </c>
@@ -2060,8 +2177,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="5" t="s">
         <v>75</v>
       </c>
@@ -2070,8 +2187,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="5" t="s">
         <v>76</v>
       </c>
@@ -2080,8 +2197,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="5" t="s">
         <v>77</v>
       </c>
@@ -2090,8 +2207,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2100,8 +2217,8 @@
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="5" t="s">
         <v>78</v>
       </c>
@@ -2110,10 +2227,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -2122,72 +2239,72 @@
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18" t="s">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -2198,63 +2315,63 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
       <c r="C53" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
       <c r="C56" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
       <c r="C59" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="19" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2264,7 +2381,7 @@
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
-      <c r="A61" s="18"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
@@ -2272,7 +2389,7 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -2284,7 +2401,7 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
-      <c r="A63" s="18"/>
+      <c r="A63" s="19"/>
       <c r="B63" s="3" t="s">
         <v>67</v>
       </c>
@@ -2299,6 +2416,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A43:A59"/>
+    <mergeCell ref="B43:B51"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A32:A42"/>
+    <mergeCell ref="B32:B40"/>
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="B3:B4"/>
@@ -2307,17 +2435,6 @@
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="A17:A31"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="A32:A42"/>
-    <mergeCell ref="B32:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A43:A59"/>
-    <mergeCell ref="B43:B51"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2345,9 +2462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O44" sqref="O44"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4057,4 +4174,681 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="7" width="31.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="10" max="10" width="102.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15">
+      <c r="A1" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="13">
+        <v>15501253283</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="13">
+        <v>18001284533</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="13">
+        <v>21122222222</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D16" s="13">
+        <v>123</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D18" s="13">
+        <v>123456</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/TestData/BappTestData.xlsx
+++ b/TestData/BappTestData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22905"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" activeTab="2"/>
+    <workbookView xWindow="-34700" yWindow="-1260" windowWidth="25520" windowHeight="15540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
     <sheet name="register" sheetId="2" r:id="rId2"/>
     <sheet name="login" sheetId="3" r:id="rId3"/>
     <sheet name="logout" sheetId="4" r:id="rId4"/>
+    <sheet name="forgetpassword" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="287">
   <si>
     <t>注册模块数据集</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1083,6 +1084,38 @@
   </si>
   <si>
     <t>您的帐号已被锁定，如密码丢失，请通过忘记密码功能，修改密码次日0点后再尝试登录。如有疑问，请拨打400-654321-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findSucceed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未注册的手机号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17500000001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findButton</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1214,7 +1247,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1316,8 +1349,52 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1370,6 +1447,12 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1380,7 +1463,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="143">
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
@@ -1479,6 +1562,50 @@
     <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1795,12 +1922,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1817,10 +1944,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1829,8 +1956,8 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" ht="88.5" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="2" t="s">
         <v>103</v>
       </c>
@@ -1839,8 +1966,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1851,8 +1978,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="2" t="s">
         <v>68</v>
       </c>
@@ -1861,8 +1988,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1871,16 +1998,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1889,10 +2016,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1903,32 +2030,32 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1939,9 +2066,9 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="4">
@@ -1949,18 +2076,18 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="2">
         <v>1234567</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1971,8 +2098,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="5" t="s">
         <v>96</v>
       </c>
@@ -1981,8 +2108,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="5" t="s">
         <v>97</v>
       </c>
@@ -1991,8 +2118,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="5" t="s">
         <v>98</v>
       </c>
@@ -2001,8 +2128,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="5" t="s">
         <v>99</v>
       </c>
@@ -2011,8 +2138,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="5" t="s">
         <v>92</v>
       </c>
@@ -2021,8 +2148,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="5" t="s">
         <v>91</v>
       </c>
@@ -2031,8 +2158,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="5" t="s">
         <v>90</v>
       </c>
@@ -2041,8 +2168,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="5" t="s">
         <v>89</v>
       </c>
@@ -2051,8 +2178,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -2063,8 +2190,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="5" t="s">
         <v>87</v>
       </c>
@@ -2073,8 +2200,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="5" t="s">
         <v>33</v>
       </c>
@@ -2083,8 +2210,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="5" t="s">
         <v>34</v>
       </c>
@@ -2093,8 +2220,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
@@ -2103,8 +2230,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="5" t="s">
         <v>86</v>
       </c>
@@ -2113,10 +2240,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -2127,8 +2254,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="5" t="s">
         <v>42</v>
       </c>
@@ -2137,8 +2264,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="5" t="s">
         <v>44</v>
       </c>
@@ -2147,8 +2274,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="5" t="s">
         <v>46</v>
       </c>
@@ -2157,8 +2284,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="5" t="s">
         <v>47</v>
       </c>
@@ -2167,8 +2294,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="5" t="s">
         <v>49</v>
       </c>
@@ -2177,8 +2304,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="5" t="s">
         <v>75</v>
       </c>
@@ -2187,8 +2314,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="5" t="s">
         <v>76</v>
       </c>
@@ -2197,8 +2324,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="5" t="s">
         <v>77</v>
       </c>
@@ -2207,8 +2334,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2217,8 +2344,8 @@
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="5" t="s">
         <v>78</v>
       </c>
@@ -2227,10 +2354,10 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="21" t="s">
         <v>40</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -2239,72 +2366,72 @@
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19" t="s">
+      <c r="A52" s="21"/>
+      <c r="B52" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -2315,63 +2442,63 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1">
-      <c r="A60" s="19" t="s">
+      <c r="A60" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2381,7 +2508,7 @@
       <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1">
-      <c r="A61" s="19"/>
+      <c r="A61" s="21"/>
       <c r="B61" s="3" t="s">
         <v>63</v>
       </c>
@@ -2389,7 +2516,7 @@
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1">
-      <c r="A62" s="19" t="s">
+      <c r="A62" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -2401,7 +2528,7 @@
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1">
-      <c r="A63" s="19"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="3" t="s">
         <v>67</v>
       </c>
@@ -2463,8 +2590,8 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17:E29"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2474,7 +2601,8 @@
     <col min="3" max="3" width="18.33203125" style="13"/>
     <col min="4" max="4" width="14.83203125" style="13" customWidth="1"/>
     <col min="5" max="6" width="18.33203125" style="13"/>
-    <col min="7" max="8" width="28.5" style="13" customWidth="1"/>
+    <col min="7" max="7" width="24" style="13" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="13" customWidth="1"/>
     <col min="9" max="11" width="18.33203125" style="13"/>
     <col min="13" max="13" width="18.33203125" style="13"/>
     <col min="14" max="14" width="9.5" style="13" customWidth="1"/>
@@ -4178,10 +4306,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4333,11 +4461,11 @@
       <c r="A6" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>122</v>
+      <c r="C6" s="13">
+        <v>21122222222</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>156</v>
@@ -4362,14 +4490,17 @@
       <c r="A7" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="13">
-        <v>21122222222</v>
+      <c r="B7" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>266</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>156</v>
@@ -4378,27 +4509,24 @@
         <v>275</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>117</v>
+        <v>270</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>266</v>
+      <c r="C8" s="13">
+        <v>15210262168</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>269</v>
@@ -4416,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4427,7 +4555,7 @@
         <v>15210262168</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>269</v>
@@ -4456,7 +4584,7 @@
         <v>15210262168</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>269</v>
@@ -4474,7 +4602,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4485,7 +4613,7 @@
         <v>15210262168</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>269</v>
@@ -4514,7 +4642,7 @@
         <v>15210262168</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>269</v>
@@ -4543,7 +4671,7 @@
         <v>15210262168</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>269</v>
@@ -4572,7 +4700,7 @@
         <v>15210262168</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>269</v>
@@ -4600,8 +4728,8 @@
       <c r="C15" s="13">
         <v>15210262168</v>
       </c>
-      <c r="D15" s="13" t="s">
-        <v>136</v>
+      <c r="D15" s="13">
+        <v>123</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>269</v>
@@ -4629,8 +4757,8 @@
       <c r="C16" s="13">
         <v>15210262168</v>
       </c>
-      <c r="D16" s="13">
-        <v>123</v>
+      <c r="D16" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>269</v>
@@ -4658,8 +4786,8 @@
       <c r="C17" s="13">
         <v>15210262168</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>137</v>
+      <c r="D17" s="13">
+        <v>123456</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>269</v>
@@ -4687,8 +4815,8 @@
       <c r="C18" s="13">
         <v>15210262168</v>
       </c>
-      <c r="D18" s="13">
-        <v>123456</v>
+      <c r="D18" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>269</v>
@@ -4717,7 +4845,7 @@
         <v>15210262168</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>269</v>
@@ -4746,7 +4874,7 @@
         <v>15210262168</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>269</v>
@@ -4764,38 +4892,9 @@
         <v>2</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C21" s="13">
-        <v>15210262168</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K20" s="8" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4851,4 +4950,661 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" s="8">
+        <v>2</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13">
+        <v>21122222222</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13">
+        <v>11013141212</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I8" s="8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D12" s="19">
+        <v>22334</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D13" s="18">
+        <v>2345</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1234567</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="13">
+        <v>123</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="13">
+        <v>123456</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13">
+        <v>15210262168</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>